--- a/data til pbi/areal/PBI - boligbygging.xlsx
+++ b/data til pbi/areal/PBI - boligbygging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/kjell-tore_haustveit_vtfk_no/Documents/PowerBI/areal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\bypakke_grenland\data til pbi\areal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_B45A6EC7D14CD52843774894881B6CB620D4F2E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC641A7-475B-46FB-BFF1-4CD18AFCD8F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62210F2F-8B5C-4498-BD7E-FA6832B67D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19230" yWindow="75" windowWidth="26700" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>År</t>
   </si>
@@ -233,10 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="19">
@@ -570,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,65 +592,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -662,45 +659,45 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>376</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
@@ -709,371 +706,400 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>357</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2019</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2018</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2018</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2018</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2017</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2017</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2017</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2016</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2016</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2016</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2016</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2015</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2015</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2015</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2015</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
-    <sortCondition descending="1" ref="A6:A49"/>
-    <sortCondition ref="B6:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D57">
+    <sortCondition descending="1" ref="A14:A57"/>
+    <sortCondition ref="B14:B57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
